--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10912"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/duclut/Nextcloud/charlieduclut.github.io/markdown_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Documents/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D584BBB3-7518-B44E-8E4A-2EB92A8E83D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD88814-818C-7F4F-9C38-4BD11546DBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
   <si>
     <t>title</t>
   </si>
@@ -67,9 +67,6 @@
     <t>Journées de Physique Statistique</t>
   </si>
   <si>
-    <t xml:space="preserve"> ESPCI, Paris, France</t>
-  </si>
-  <si>
     <t>Langevin equations for reaction-diffusion processes</t>
   </si>
   <si>
@@ -253,9 +250,6 @@
     <t>poster-2</t>
   </si>
   <si>
-    <t>Beg Rohu summer school, France</t>
-  </si>
-  <si>
     <t>Beg Rohu, France</t>
   </si>
   <si>
@@ -271,9 +265,6 @@
     <t>poster-4</t>
   </si>
   <si>
-    <t>Les Houches summer school, France</t>
-  </si>
-  <si>
     <t>Les Houches, France</t>
   </si>
   <si>
@@ -317,6 +308,75 @@
   </si>
   <si>
     <t>Physics Meets Biology</t>
+  </si>
+  <si>
+    <t>Invited Talk</t>
+  </si>
+  <si>
+    <t>inv-talk-1</t>
+  </si>
+  <si>
+    <t>inv-talk-2</t>
+  </si>
+  <si>
+    <t>Fluid pumping and flexoelectricity can drive lumen nucleation in cell spheroids</t>
+  </si>
+  <si>
+    <t>Hydraulic and electric control of a cell spheroid</t>
+  </si>
+  <si>
+    <t>seminar-9</t>
+  </si>
+  <si>
+    <t>Laboratoire de Physique Théorique de la Matière Condensée</t>
+  </si>
+  <si>
+    <t>Renormalization group approach to the collective dynamics of chemotactic cells</t>
+  </si>
+  <si>
+    <t>Beg Rohu summer school</t>
+  </si>
+  <si>
+    <t>Les Houches summer school</t>
+  </si>
+  <si>
+    <t>Active mechanical and electrohydraulic properties of tissues</t>
+  </si>
+  <si>
+    <t>seminar-10</t>
+  </si>
+  <si>
+    <t>seminar-11</t>
+  </si>
+  <si>
+    <t>seminar-12</t>
+  </si>
+  <si>
+    <t>seminar-13</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoire Jean Perrin </t>
+  </si>
+  <si>
+    <t>Laboratoire Physico-Chimie Curie</t>
+  </si>
+  <si>
+    <t>Institut Curie, Paris, France</t>
+  </si>
+  <si>
+    <t>ESPCI, Paris, France</t>
+  </si>
+  <si>
+    <t>Laboratoire Physique et Mécanique des Milieux Hétérogènes</t>
+  </si>
+  <si>
+    <t>Labex "Who am I?" 2022 annual meeting</t>
+  </si>
+  <si>
+    <t>ENSA, Paris, France</t>
+  </si>
+  <si>
+    <t>New frontiers in liquid matter</t>
   </si>
 </sst>
 </file>
@@ -326,7 +386,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,6 +397,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -681,17 +747,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G27"/>
+  <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
+    <col min="1" max="1" width="32.5" customWidth="1"/>
     <col min="2" max="2" width="14.33203125" customWidth="1"/>
     <col min="4" max="4" width="63" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
     <col min="6" max="6" width="42.1640625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -720,525 +787,666 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>93</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="E2" s="1">
-        <v>42397</v>
+        <v>43559</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>95</v>
       </c>
       <c r="B3" t="s">
-        <v>8</v>
+        <v>92</v>
       </c>
       <c r="C3" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>112</v>
       </c>
       <c r="E3" s="1">
-        <v>43171</v>
+        <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D4" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E4" s="1">
-        <v>43291</v>
+        <v>42397</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>21</v>
+      <c r="C5" t="s">
+        <v>12</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="E5" s="1">
-        <v>43551</v>
+        <v>43171</v>
       </c>
       <c r="F5" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>25</v>
+      <c r="C6" t="s">
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="E6" s="1">
-        <v>43559</v>
+        <v>43291</v>
       </c>
       <c r="F6" t="s">
-        <v>27</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>21</v>
       </c>
       <c r="E7" s="1">
-        <v>44271</v>
+        <v>43551</v>
       </c>
       <c r="F7" t="s">
-        <v>31</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F8" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="3">
-        <v>44454</v>
+        <v>32</v>
+      </c>
+      <c r="E9" s="1">
+        <v>44278</v>
       </c>
       <c r="F9" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" t="s">
-        <v>40</v>
+        <v>8</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>31</v>
       </c>
       <c r="D10" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E10" s="3">
-        <v>42824</v>
+        <v>44454</v>
       </c>
       <c r="F10" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>43</v>
+        <v>96</v>
       </c>
       <c r="B11" t="s">
-        <v>39</v>
-      </c>
-      <c r="C11" t="s">
-        <v>44</v>
+        <v>8</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" s="3">
-        <v>43837</v>
+        <v>114</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44749</v>
       </c>
       <c r="F11" t="s">
-        <v>46</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>39</v>
       </c>
-      <c r="C12" t="s">
-        <v>47</v>
-      </c>
       <c r="D12" t="s">
-        <v>48</v>
+        <v>40</v>
       </c>
       <c r="E12" s="3">
-        <v>43839</v>
+        <v>42824</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
+        <v>42</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>43</v>
       </c>
-      <c r="B13" t="s">
-        <v>39</v>
-      </c>
-      <c r="C13" t="s">
-        <v>50</v>
-      </c>
       <c r="D13" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="E13" s="3">
-        <v>43845</v>
+        <v>43837</v>
       </c>
       <c r="F13" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="B14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>54</v>
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
       </c>
       <c r="D14" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="E14" s="3">
-        <v>43921</v>
+        <v>43839</v>
       </c>
       <c r="F14" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>57</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>58</v>
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
+        <v>49</v>
       </c>
       <c r="D15" t="s">
-        <v>59</v>
+        <v>50</v>
       </c>
       <c r="E15" s="3">
-        <v>44118</v>
+        <v>43845</v>
       </c>
       <c r="F15" t="s">
-        <v>60</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>62</v>
+        <v>53</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="E16" s="3">
-        <v>44137</v>
+        <v>43921</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>64</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>65</v>
+        <v>58</v>
       </c>
       <c r="E17" s="3">
-        <v>44145</v>
+        <v>44118</v>
       </c>
       <c r="F17" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>67</v>
+        <v>60</v>
       </c>
       <c r="B18" t="s">
-        <v>68</v>
-      </c>
-      <c r="C18" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>61</v>
       </c>
       <c r="D18" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E18" s="3">
-        <v>41050</v>
+        <v>44137</v>
       </c>
       <c r="F18" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>12</v>
+        <v>60</v>
       </c>
       <c r="B19" t="s">
-        <v>68</v>
-      </c>
-      <c r="C19" t="s">
-        <v>72</v>
+        <v>38</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>73</v>
+        <v>64</v>
       </c>
       <c r="E19" s="3">
-        <v>42583</v>
+        <v>44145</v>
       </c>
       <c r="F19" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>12</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
-        <v>68</v>
-      </c>
-      <c r="C20" t="s">
-        <v>75</v>
+        <v>38</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>97</v>
       </c>
       <c r="D20" t="s">
-        <v>76</v>
+        <v>50</v>
       </c>
       <c r="E20" s="3">
-        <v>42775</v>
+        <v>44543</v>
       </c>
       <c r="F20" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B21" t="s">
-        <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D21" t="s">
-        <v>79</v>
+        <v>108</v>
       </c>
       <c r="E21" s="3">
-        <v>43313</v>
+        <v>44589</v>
       </c>
       <c r="F21" t="s">
-        <v>80</v>
+        <v>109</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B22" t="s">
-        <v>68</v>
-      </c>
-      <c r="C22" t="s">
-        <v>81</v>
+        <v>38</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D22" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="E22" s="3">
-        <v>43586</v>
+        <v>44608</v>
       </c>
       <c r="F22" t="s">
-        <v>83</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>77</v>
+        <v>102</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C23" t="s">
-        <v>84</v>
+        <v>38</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D23" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E23" s="3">
-        <v>43649</v>
+        <v>44614</v>
       </c>
       <c r="F23" t="s">
-        <v>86</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>77</v>
+        <v>99</v>
       </c>
       <c r="B24" t="s">
-        <v>68</v>
-      </c>
-      <c r="C24" t="s">
-        <v>87</v>
+        <v>38</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>106</v>
       </c>
       <c r="D24" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="E24" s="3">
-        <v>43759</v>
+        <v>44844</v>
       </c>
       <c r="F24" t="s">
-        <v>37</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="B25" t="s">
+        <v>67</v>
+      </c>
+      <c r="C25" t="s">
         <v>68</v>
       </c>
-      <c r="C25" t="s">
-        <v>89</v>
-      </c>
       <c r="D25" t="s">
-        <v>90</v>
+        <v>69</v>
       </c>
       <c r="E25" s="3">
-        <v>44125</v>
+        <v>41050</v>
       </c>
       <c r="F25" t="s">
-        <v>31</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C26" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="E26" s="3">
-        <v>44354</v>
+        <v>42583</v>
       </c>
       <c r="F26" t="s">
-        <v>31</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>11</v>
       </c>
       <c r="B27" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="D27" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="E27" s="3">
+        <v>42775</v>
+      </c>
+      <c r="F27" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>75</v>
+      </c>
+      <c r="B28" t="s">
+        <v>67</v>
+      </c>
+      <c r="C28" t="s">
+        <v>76</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" s="3">
+        <v>43313</v>
+      </c>
+      <c r="F28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" t="s">
+        <v>67</v>
+      </c>
+      <c r="C29" t="s">
+        <v>78</v>
+      </c>
+      <c r="D29" t="s">
+        <v>79</v>
+      </c>
+      <c r="E29" s="3">
+        <v>43586</v>
+      </c>
+      <c r="F29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A30" t="s">
+        <v>75</v>
+      </c>
+      <c r="B30" t="s">
+        <v>67</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+      <c r="D30" t="s">
+        <v>82</v>
+      </c>
+      <c r="E30" s="3">
+        <v>43649</v>
+      </c>
+      <c r="F30" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A31" t="s">
+        <v>75</v>
+      </c>
+      <c r="B31" t="s">
+        <v>67</v>
+      </c>
+      <c r="C31" t="s">
+        <v>84</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+      <c r="E31" s="3">
+        <v>43759</v>
+      </c>
+      <c r="F31" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A32" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>86</v>
+      </c>
+      <c r="D32" t="s">
+        <v>87</v>
+      </c>
+      <c r="E32" s="3">
+        <v>44125</v>
+      </c>
+      <c r="F32" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A33" t="s">
+        <v>27</v>
+      </c>
+      <c r="B33" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" t="s">
+        <v>88</v>
+      </c>
+      <c r="D33" t="s">
+        <v>89</v>
+      </c>
+      <c r="E33" s="3">
+        <v>44354</v>
+      </c>
+      <c r="F33" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A34" t="s">
+        <v>27</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" t="s">
+        <v>91</v>
+      </c>
+      <c r="E34" s="3">
         <v>44403</v>
       </c>
-      <c r="F27" t="s">
-        <v>31</v>
+      <c r="F34" t="s">
+        <v>30</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/Documents/charlieduclut.github.io/markdown_generator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDD88814-818C-7F4F-9C38-4BD11546DBC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4235258A-BB5F-5047-8EE2-D308EF012729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -310,9 +310,6 @@
     <t>Physics Meets Biology</t>
   </si>
   <si>
-    <t>Invited Talk</t>
-  </si>
-  <si>
     <t>inv-talk-1</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>New frontiers in liquid matter</t>
+  </si>
+  <si>
+    <t>Invited talk</t>
   </si>
 </sst>
 </file>
@@ -451,7 +451,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,7 +739,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -750,7 +750,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,10 +790,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C2" t="s">
         <v>92</v>
-      </c>
-      <c r="C2" t="s">
-        <v>93</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -807,22 +807,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1">
         <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -842,7 +842,7 @@
         <v>42397</v>
       </c>
       <c r="F4" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -967,7 +967,7 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
@@ -976,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <v>44749</v>
@@ -1147,13 +1147,13 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D20" t="s">
         <v>50</v>
@@ -1167,56 +1167,56 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D21" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E21" s="3">
         <v>44589</v>
       </c>
       <c r="F21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D22" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E22" s="3">
         <v>44608</v>
       </c>
       <c r="F22" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E23" s="3">
         <v>44614</v>
@@ -1227,16 +1227,16 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D24" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E24" s="3">
         <v>44844</v>
@@ -1276,7 +1276,7 @@
         <v>71</v>
       </c>
       <c r="D26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E26" s="3">
         <v>42583</v>
@@ -1316,7 +1316,7 @@
         <v>76</v>
       </c>
       <c r="D28" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E28" s="3">
         <v>43313</v>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4235258A-BB5F-5047-8EE2-D308EF012729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC9BCF-5B81-EC45-BFE7-965465522490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -367,9 +367,6 @@
     <t>Laboratoire Physique et Mécanique des Milieux Hétérogènes</t>
   </si>
   <si>
-    <t>Labex "Who am I?" 2022 annual meeting</t>
-  </si>
-  <si>
     <t>ENSA, Paris, France</t>
   </si>
   <si>
@@ -377,6 +374,9 @@
   </si>
   <si>
     <t>Invited talk</t>
+  </si>
+  <si>
+    <t>Labex Who am I? 2022 annual meeting</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -810,19 +810,19 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="E3" s="1">
         <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="E11" s="1">
         <v>44749</v>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8AC9BCF-5B81-EC45-BFE7-965465522490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9136B4-FFB1-384B-B0D2-C2B2E2DBB95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -367,6 +367,9 @@
     <t>Laboratoire Physique et Mécanique des Milieux Hétérogènes</t>
   </si>
   <si>
+    <t>Labex "Who am I?" 2022 annual meeting</t>
+  </si>
+  <si>
     <t>ENSA, Paris, France</t>
   </si>
   <si>
@@ -374,9 +377,6 @@
   </si>
   <si>
     <t>Invited talk</t>
-  </si>
-  <si>
-    <t>Labex Who am I? 2022 annual meeting</t>
   </si>
 </sst>
 </file>
@@ -750,7 +750,7 @@
   <dimension ref="A1:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -790,7 +790,7 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C2" t="s">
         <v>92</v>
@@ -810,19 +810,19 @@
         <v>94</v>
       </c>
       <c r="B3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C3" t="s">
         <v>93</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="E3" s="1">
         <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -976,7 +976,7 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E11" s="1">
         <v>44749</v>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA9136B4-FFB1-384B-B0D2-C2B2E2DBB95E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25083EF5-4FAC-7F44-8D05-2D652FC268D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
   <si>
     <t>title</t>
   </si>
@@ -377,6 +377,48 @@
   </si>
   <si>
     <t>Invited talk</t>
+  </si>
+  <si>
+    <t>Sitges conference on Statistical Mechanics</t>
+  </si>
+  <si>
+    <t>talk-9</t>
+  </si>
+  <si>
+    <t>Stochastic dynamics of chemotactic colonies with logistic growth</t>
+  </si>
+  <si>
+    <t>talk-10</t>
+  </si>
+  <si>
+    <t>École Normale Supérieure de Paris, France</t>
+  </si>
+  <si>
+    <t>Hotel Calipolis, Sitges, Spain</t>
+  </si>
+  <si>
+    <t>poster-11</t>
+  </si>
+  <si>
+    <t>New Perspectives in Active Systems</t>
+  </si>
+  <si>
+    <t>poster-12</t>
+  </si>
+  <si>
+    <t>Electrohydraulics of cells and tissues</t>
+  </si>
+  <si>
+    <t>Institute Scientific Evaluation</t>
+  </si>
+  <si>
+    <t>Engineering Life – Active Matter Across Scales</t>
+  </si>
+  <si>
+    <t>Steigenberger Hotel de Saxe Dresden, Germany</t>
+  </si>
+  <si>
+    <t>poster-13</t>
   </si>
 </sst>
 </file>
@@ -451,7 +493,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -739,7 +781,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -747,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G34"/>
+  <dimension ref="A1:G39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -987,62 +1029,62 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
-      </c>
-      <c r="C12" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>116</v>
       </c>
       <c r="D12" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="3">
-        <v>42824</v>
+        <v>10</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44952</v>
       </c>
       <c r="F12" t="s">
-        <v>41</v>
+        <v>119</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>42</v>
+        <v>117</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
-      </c>
-      <c r="C13" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>118</v>
       </c>
       <c r="D13" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="3">
-        <v>43837</v>
+        <v>115</v>
+      </c>
+      <c r="E13" s="1">
+        <v>45075</v>
       </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>120</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B14" t="s">
         <v>38</v>
       </c>
       <c r="C14" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="E14" s="3">
-        <v>43839</v>
+        <v>42824</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1053,136 +1095,136 @@
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="D15" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E15" s="3">
-        <v>43845</v>
+        <v>43837</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>53</v>
+      <c r="C16" t="s">
+        <v>46</v>
       </c>
       <c r="D16" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="E16" s="3">
-        <v>43921</v>
+        <v>43839</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B17" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>57</v>
+      <c r="C17" t="s">
+        <v>49</v>
       </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="E17" s="3">
-        <v>44118</v>
+        <v>43845</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D18" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="E18" s="3">
-        <v>44137</v>
+        <v>43921</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="E19" s="3">
-        <v>44145</v>
+        <v>44118</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>96</v>
+        <v>61</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="E20" s="3">
-        <v>44543</v>
+        <v>44137</v>
       </c>
       <c r="F20" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>102</v>
+        <v>63</v>
       </c>
       <c r="D21" t="s">
-        <v>107</v>
+        <v>64</v>
       </c>
       <c r="E21" s="3">
-        <v>44589</v>
+        <v>44145</v>
       </c>
       <c r="F21" t="s">
-        <v>108</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1193,16 +1235,16 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D22" t="s">
-        <v>110</v>
+        <v>50</v>
       </c>
       <c r="E22" s="3">
-        <v>44608</v>
+        <v>44543</v>
       </c>
       <c r="F22" t="s">
-        <v>109</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1213,136 +1255,136 @@
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D23" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="E23" s="3">
-        <v>44614</v>
+        <v>44589</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>108</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D24" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E24" s="3">
-        <v>44844</v>
+        <v>44608</v>
       </c>
       <c r="F24" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>66</v>
+        <v>101</v>
       </c>
       <c r="B25" t="s">
-        <v>67</v>
-      </c>
-      <c r="C25" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="D25" t="s">
-        <v>69</v>
+        <v>106</v>
       </c>
       <c r="E25" s="3">
-        <v>41050</v>
+        <v>44614</v>
       </c>
       <c r="F25" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>98</v>
       </c>
       <c r="B26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C26" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E26" s="3">
-        <v>42583</v>
+        <v>44844</v>
       </c>
       <c r="F26" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B27" t="s">
         <v>67</v>
       </c>
       <c r="C27" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="D27" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="E27" s="3">
-        <v>42775</v>
+        <v>41050</v>
       </c>
       <c r="F27" t="s">
-        <v>45</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E28" s="3">
-        <v>43313</v>
+        <v>42583</v>
       </c>
       <c r="F28" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="D29" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="E29" s="3">
-        <v>43586</v>
+        <v>42775</v>
       </c>
       <c r="F29" t="s">
-        <v>80</v>
+        <v>45</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1353,16 +1395,16 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="D30" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="E30" s="3">
-        <v>43649</v>
+        <v>43313</v>
       </c>
       <c r="F30" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1373,16 +1415,16 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="D31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E31" s="3">
-        <v>43759</v>
+        <v>43586</v>
       </c>
       <c r="F31" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1393,56 +1435,156 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="D32" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="E32" s="3">
-        <v>44125</v>
+        <v>43649</v>
       </c>
       <c r="F32" t="s">
-        <v>30</v>
+        <v>83</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B33" t="s">
         <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D33" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E33" s="3">
-        <v>44354</v>
+        <v>43759</v>
       </c>
       <c r="F33" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B34" t="s">
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="D34" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E34" s="3">
-        <v>44403</v>
+        <v>44125</v>
       </c>
       <c r="F34" t="s">
         <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A35" t="s">
+        <v>27</v>
+      </c>
+      <c r="B35" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" t="s">
+        <v>88</v>
+      </c>
+      <c r="D35" t="s">
+        <v>89</v>
+      </c>
+      <c r="E35" s="3">
+        <v>44354</v>
+      </c>
+      <c r="F35" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>90</v>
+      </c>
+      <c r="D36" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="3">
+        <v>44403</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A37" t="s">
+        <v>124</v>
+      </c>
+      <c r="B37" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" t="s">
+        <v>121</v>
+      </c>
+      <c r="D37" t="s">
+        <v>125</v>
+      </c>
+      <c r="E37" s="1">
+        <v>44656</v>
+      </c>
+      <c r="F37" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>124</v>
+      </c>
+      <c r="B38" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" t="s">
+        <v>126</v>
+      </c>
+      <c r="E38" s="1">
+        <v>44740</v>
+      </c>
+      <c r="F38" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>117</v>
+      </c>
+      <c r="B39" t="s">
+        <v>67</v>
+      </c>
+      <c r="C39" t="s">
+        <v>128</v>
+      </c>
+      <c r="D39" t="s">
+        <v>122</v>
+      </c>
+      <c r="E39" s="1">
+        <v>45041</v>
+      </c>
+      <c r="F39" t="s">
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10514"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25083EF5-4FAC-7F44-8D05-2D652FC268D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E67C25-43F7-5248-8214-6B3AFCA50F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
   <si>
     <t>title</t>
   </si>
@@ -419,6 +419,18 @@
   </si>
   <si>
     <t>poster-13</t>
+  </si>
+  <si>
+    <t>talk-11</t>
+  </si>
+  <si>
+    <t>Rice Global Paris Center, Paris, France</t>
+  </si>
+  <si>
+    <t>Hydraulic and electric properties of tissues</t>
+  </si>
+  <si>
+    <t>Physics meets Biology</t>
   </si>
 </sst>
 </file>
@@ -789,10 +801,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1069,42 +1081,42 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B14" t="s">
-        <v>38</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D14" t="s">
-        <v>40</v>
-      </c>
-      <c r="E14" s="3">
-        <v>42824</v>
+        <v>132</v>
+      </c>
+      <c r="E14" s="1">
+        <v>45223</v>
       </c>
       <c r="F14" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B15" t="s">
         <v>38</v>
       </c>
       <c r="C15" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D15" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E15" s="3">
-        <v>43837</v>
+        <v>42824</v>
       </c>
       <c r="F15" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1115,16 +1127,16 @@
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E16" s="3">
-        <v>43839</v>
+        <v>43837</v>
       </c>
       <c r="F16" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1135,76 +1147,76 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E17" s="3">
-        <v>43845</v>
+        <v>43839</v>
       </c>
       <c r="F17" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B18" t="s">
         <v>38</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>53</v>
+      <c r="C18" t="s">
+        <v>49</v>
       </c>
       <c r="D18" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E18" s="3">
-        <v>43921</v>
+        <v>43845</v>
       </c>
       <c r="F18" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D19" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E19" s="3">
-        <v>44118</v>
+        <v>43921</v>
       </c>
       <c r="F19" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D20" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E20" s="3">
-        <v>44137</v>
+        <v>44118</v>
       </c>
       <c r="F20" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1215,36 +1227,36 @@
         <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D21" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="3">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="F21" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D22" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E22" s="3">
-        <v>44543</v>
+        <v>44145</v>
       </c>
       <c r="F22" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1255,16 +1267,16 @@
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D23" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E23" s="3">
-        <v>44589</v>
+        <v>44543</v>
       </c>
       <c r="F23" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1275,16 +1287,16 @@
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D24" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E24" s="3">
-        <v>44608</v>
+        <v>44589</v>
       </c>
       <c r="F24" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1295,33 +1307,33 @@
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D25" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E25" s="3">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="F25" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D26" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E26" s="3">
-        <v>44844</v>
+        <v>44614</v>
       </c>
       <c r="F26" t="s">
         <v>65</v>
@@ -1329,42 +1341,42 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B27" t="s">
-        <v>67</v>
-      </c>
-      <c r="C27" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D27" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E27" s="3">
-        <v>41050</v>
+        <v>44844</v>
       </c>
       <c r="F27" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B28" t="s">
         <v>67</v>
       </c>
       <c r="C28" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E28" s="3">
-        <v>42583</v>
+        <v>41050</v>
       </c>
       <c r="F28" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1375,36 +1387,36 @@
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D29" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E29" s="3">
-        <v>42775</v>
+        <v>42583</v>
       </c>
       <c r="F29" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B30" t="s">
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E30" s="3">
-        <v>43313</v>
+        <v>42775</v>
       </c>
       <c r="F30" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
@@ -1415,16 +1427,16 @@
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D31" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E31" s="3">
-        <v>43586</v>
+        <v>43313</v>
       </c>
       <c r="F31" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1435,16 +1447,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E32" s="3">
-        <v>43649</v>
+        <v>43586</v>
       </c>
       <c r="F32" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1455,16 +1467,16 @@
         <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D33" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E33" s="3">
-        <v>43759</v>
+        <v>43649</v>
       </c>
       <c r="F33" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1475,33 +1487,33 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D34" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E34" s="3">
-        <v>44125</v>
+        <v>43759</v>
       </c>
       <c r="F34" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E35" s="3">
-        <v>44354</v>
+        <v>44125</v>
       </c>
       <c r="F35" t="s">
         <v>30</v>
@@ -1515,13 +1527,13 @@
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D36" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="3">
-        <v>44403</v>
+        <v>44354</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -1529,22 +1541,22 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B37" t="s">
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D37" t="s">
-        <v>125</v>
-      </c>
-      <c r="E37" s="1">
-        <v>44656</v>
+        <v>91</v>
+      </c>
+      <c r="E37" s="3">
+        <v>44403</v>
       </c>
       <c r="F37" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1555,35 +1567,55 @@
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E38" s="1">
-        <v>44740</v>
+        <v>44656</v>
       </c>
       <c r="F38" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B39" t="s">
         <v>67</v>
       </c>
       <c r="C39" t="s">
+        <v>123</v>
+      </c>
+      <c r="D39" t="s">
+        <v>126</v>
+      </c>
+      <c r="E39" s="1">
+        <v>44740</v>
+      </c>
+      <c r="F39" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>117</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
         <v>128</v>
       </c>
-      <c r="D39" t="s">
+      <c r="D40" t="s">
         <v>122</v>
       </c>
-      <c r="E39" s="1">
+      <c r="E40" s="1">
         <v>45041</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F40" t="s">
         <v>36</v>
       </c>
     </row>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24E67C25-43F7-5248-8214-6B3AFCA50F94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17035B2A-82EB-0147-AB6B-71480CD63C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1460" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
+    <workbookView xWindow="-30140" yWindow="2020" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
   <si>
     <t>title</t>
   </si>
@@ -431,6 +431,12 @@
   </si>
   <si>
     <t>Physics meets Biology</t>
+  </si>
+  <si>
+    <t>inv-talk-3</t>
+  </si>
+  <si>
+    <t>Multiscale integration in Biological Systems</t>
   </si>
 </sst>
 </file>
@@ -505,9 +511,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -545,7 +551,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -651,7 +657,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -793,7 +799,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -801,10 +807,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -881,102 +887,102 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>8</v>
+        <v>114</v>
       </c>
       <c r="C4" t="s">
-        <v>9</v>
+        <v>133</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>134</v>
       </c>
       <c r="E4" s="1">
-        <v>42397</v>
+        <v>45240</v>
       </c>
       <c r="F4" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E5" s="1">
-        <v>43171</v>
+        <v>42397</v>
       </c>
       <c r="F5" t="s">
-        <v>14</v>
+        <v>109</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E6" s="1">
-        <v>43291</v>
+        <v>43171</v>
       </c>
       <c r="F6" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>20</v>
+      <c r="C7" t="s">
+        <v>16</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E7" s="1">
-        <v>43551</v>
+        <v>43291</v>
       </c>
       <c r="F7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E8" s="1">
-        <v>44271</v>
+        <v>43551</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -987,13 +993,13 @@
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E9" s="1">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F9" t="s">
         <v>30</v>
@@ -1001,62 +1007,62 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
-      </c>
-      <c r="E10" s="3">
-        <v>44454</v>
+        <v>32</v>
+      </c>
+      <c r="E10" s="1">
+        <v>44278</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>95</v>
+        <v>33</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D11" t="s">
-        <v>113</v>
-      </c>
-      <c r="E11" s="1">
-        <v>44749</v>
+        <v>35</v>
+      </c>
+      <c r="E11" s="3">
+        <v>44454</v>
       </c>
       <c r="F11" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>117</v>
+        <v>95</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>116</v>
+        <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>113</v>
       </c>
       <c r="E12" s="1">
-        <v>44952</v>
+        <v>44749</v>
       </c>
       <c r="F12" t="s">
-        <v>119</v>
+        <v>18</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1067,76 +1073,76 @@
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>10</v>
       </c>
       <c r="E13" s="1">
-        <v>45075</v>
+        <v>44952</v>
       </c>
       <c r="F13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>131</v>
+        <v>117</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="D14" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="E14" s="1">
-        <v>45223</v>
+        <v>45075</v>
       </c>
       <c r="F14" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>37</v>
+        <v>131</v>
       </c>
       <c r="B15" t="s">
-        <v>38</v>
-      </c>
-      <c r="C15" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="D15" t="s">
-        <v>40</v>
-      </c>
-      <c r="E15" s="3">
-        <v>42824</v>
+        <v>132</v>
+      </c>
+      <c r="E15" s="1">
+        <v>45223</v>
       </c>
       <c r="F15" t="s">
-        <v>41</v>
+        <v>130</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B16" t="s">
         <v>38</v>
       </c>
       <c r="C16" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D16" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E16" s="3">
-        <v>43837</v>
+        <v>42824</v>
       </c>
       <c r="F16" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -1147,16 +1153,16 @@
         <v>38</v>
       </c>
       <c r="C17" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="E17" s="3">
-        <v>43839</v>
+        <v>43837</v>
       </c>
       <c r="F17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
@@ -1167,76 +1173,76 @@
         <v>38</v>
       </c>
       <c r="C18" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D18" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E18" s="3">
-        <v>43845</v>
+        <v>43839</v>
       </c>
       <c r="F18" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>53</v>
+      <c r="C19" t="s">
+        <v>49</v>
       </c>
       <c r="D19" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="E19" s="3">
-        <v>43921</v>
+        <v>43845</v>
       </c>
       <c r="F19" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E20" s="3">
-        <v>44118</v>
+        <v>43921</v>
       </c>
       <c r="F20" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D21" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E21" s="3">
-        <v>44137</v>
+        <v>44118</v>
       </c>
       <c r="F21" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1247,36 +1253,36 @@
         <v>38</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D22" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="3">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="F22" t="s">
-        <v>65</v>
+        <v>48</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="E23" s="3">
-        <v>44543</v>
+        <v>44145</v>
       </c>
       <c r="F23" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
@@ -1287,16 +1293,16 @@
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D24" t="s">
-        <v>107</v>
+        <v>50</v>
       </c>
       <c r="E24" s="3">
-        <v>44589</v>
+        <v>44543</v>
       </c>
       <c r="F24" t="s">
-        <v>108</v>
+        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
@@ -1307,16 +1313,16 @@
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D25" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E25" s="3">
-        <v>44608</v>
+        <v>44589</v>
       </c>
       <c r="F25" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1327,33 +1333,33 @@
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D26" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="E26" s="3">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="F26" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D27" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="E27" s="3">
-        <v>44844</v>
+        <v>44614</v>
       </c>
       <c r="F27" t="s">
         <v>65</v>
@@ -1361,42 +1367,42 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>66</v>
+        <v>98</v>
       </c>
       <c r="B28" t="s">
-        <v>67</v>
-      </c>
-      <c r="C28" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="D28" t="s">
-        <v>69</v>
+        <v>97</v>
       </c>
       <c r="E28" s="3">
-        <v>41050</v>
+        <v>44844</v>
       </c>
       <c r="F28" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>11</v>
+        <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>67</v>
       </c>
       <c r="C29" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>99</v>
+        <v>69</v>
       </c>
       <c r="E29" s="3">
-        <v>42583</v>
+        <v>41050</v>
       </c>
       <c r="F29" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1407,36 +1413,36 @@
         <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="D30" t="s">
-        <v>74</v>
+        <v>99</v>
       </c>
       <c r="E30" s="3">
-        <v>42775</v>
+        <v>42583</v>
       </c>
       <c r="F30" t="s">
-        <v>45</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B31" t="s">
         <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D31" t="s">
-        <v>100</v>
+        <v>74</v>
       </c>
       <c r="E31" s="3">
-        <v>43313</v>
+        <v>42775</v>
       </c>
       <c r="F31" t="s">
-        <v>77</v>
+        <v>45</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,16 +1453,16 @@
         <v>67</v>
       </c>
       <c r="C32" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="D32" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="E32" s="3">
-        <v>43586</v>
+        <v>43313</v>
       </c>
       <c r="F32" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,16 +1473,16 @@
         <v>67</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D33" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E33" s="3">
-        <v>43649</v>
+        <v>43586</v>
       </c>
       <c r="F33" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
@@ -1487,16 +1493,16 @@
         <v>67</v>
       </c>
       <c r="C34" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D34" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E34" s="3">
-        <v>43759</v>
+        <v>43649</v>
       </c>
       <c r="F34" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
@@ -1507,33 +1513,33 @@
         <v>67</v>
       </c>
       <c r="C35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D35" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E35" s="3">
-        <v>44125</v>
+        <v>43759</v>
       </c>
       <c r="F35" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>27</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>67</v>
       </c>
       <c r="C36" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D36" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E36" s="3">
-        <v>44354</v>
+        <v>44125</v>
       </c>
       <c r="F36" t="s">
         <v>30</v>
@@ -1547,13 +1553,13 @@
         <v>67</v>
       </c>
       <c r="C37" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D37" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E37" s="3">
-        <v>44403</v>
+        <v>44354</v>
       </c>
       <c r="F37" t="s">
         <v>30</v>
@@ -1561,22 +1567,22 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>27</v>
       </c>
       <c r="B38" t="s">
         <v>67</v>
       </c>
       <c r="C38" t="s">
-        <v>121</v>
+        <v>90</v>
       </c>
       <c r="D38" t="s">
-        <v>125</v>
-      </c>
-      <c r="E38" s="1">
-        <v>44656</v>
+        <v>91</v>
+      </c>
+      <c r="E38" s="3">
+        <v>44403</v>
       </c>
       <c r="F38" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1587,35 +1593,55 @@
         <v>67</v>
       </c>
       <c r="C39" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D39" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="E39" s="1">
-        <v>44740</v>
+        <v>44656</v>
       </c>
       <c r="F39" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B40" t="s">
         <v>67</v>
       </c>
       <c r="C40" t="s">
+        <v>123</v>
+      </c>
+      <c r="D40" t="s">
+        <v>126</v>
+      </c>
+      <c r="E40" s="1">
+        <v>44740</v>
+      </c>
+      <c r="F40" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>117</v>
+      </c>
+      <c r="B41" t="s">
+        <v>67</v>
+      </c>
+      <c r="C41" t="s">
         <v>128</v>
       </c>
-      <c r="D40" t="s">
+      <c r="D41" t="s">
         <v>122</v>
       </c>
-      <c r="E40" s="1">
+      <c r="E41" s="1">
         <v>45041</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F41" t="s">
         <v>36</v>
       </c>
     </row>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17035B2A-82EB-0147-AB6B-71480CD63C2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A17A5-1F25-274D-BF5F-24F7DF35B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-30140" yWindow="2020" windowWidth="24640" windowHeight="13440" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
   <si>
     <t>title</t>
   </si>
@@ -169,9 +169,6 @@
     <t>Laboratoire de Physique</t>
   </si>
   <si>
-    <t>École Normale Supérieure de Lyon, Lyon, France</t>
-  </si>
-  <si>
     <t>seminar-3</t>
   </si>
   <si>
@@ -187,9 +184,6 @@
     <t>Laboratoire Matière et Systèmes Complexes</t>
   </si>
   <si>
-    <t>Université de Paris, Paris, France</t>
-  </si>
-  <si>
     <t>Quorum effects in assemblies of chemotactic cells</t>
   </si>
   <si>
@@ -367,9 +361,6 @@
     <t>Laboratoire Physique et Mécanique des Milieux Hétérogènes</t>
   </si>
   <si>
-    <t>Labex "Who am I?" 2022 annual meeting</t>
-  </si>
-  <si>
     <t>ENSA, Paris, France</t>
   </si>
   <si>
@@ -391,9 +382,6 @@
     <t>talk-10</t>
   </si>
   <si>
-    <t>École Normale Supérieure de Paris, France</t>
-  </si>
-  <si>
     <t>Hotel Calipolis, Sitges, Spain</t>
   </si>
   <si>
@@ -437,6 +425,72 @@
   </si>
   <si>
     <t>Multiscale integration in Biological Systems</t>
+  </si>
+  <si>
+    <t>seminar-14</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laboratoire de Physique </t>
+  </si>
+  <si>
+    <t>École Normale Supérieure, Paris, France</t>
+  </si>
+  <si>
+    <t>École Normale Supérieure, Lyon, France</t>
+  </si>
+  <si>
+    <t>Université Paris-Cité, Paris, France</t>
+  </si>
+  <si>
+    <t>talk-12</t>
+  </si>
+  <si>
+    <t>seminar-15</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chemotaxis - from Basic Physics to Biology </t>
+  </si>
+  <si>
+    <t>talk-13</t>
+  </si>
+  <si>
+    <t>Collective Motions of Animals and Robots</t>
+  </si>
+  <si>
+    <t>Institut d’Études Scientifiques de Cargèse, Corsica</t>
+  </si>
+  <si>
+    <t>Tissue Mechanics Group Meetings</t>
+  </si>
+  <si>
+    <t>Laboratoire Génétique et biologie du développement, Institut Curie, Paris, France</t>
+  </si>
+  <si>
+    <t>Hydraulic properties of MDCK cell spheroids</t>
+  </si>
+  <si>
+    <t>vulga-1</t>
+  </si>
+  <si>
+    <t>Workshop</t>
+  </si>
+  <si>
+    <t>A career as a researcher</t>
+  </si>
+  <si>
+    <t>LabEx Cell(n)Scale closing meeting</t>
+  </si>
+  <si>
+    <t>LaBex "Who am I?" 2022 annual meeting</t>
+  </si>
+  <si>
+    <t>Center Parcs, Le Lac d’Ailette, France</t>
+  </si>
+  <si>
+    <t>talk-14</t>
+  </si>
+  <si>
+    <t>From active matter to cell tissues</t>
   </si>
 </sst>
 </file>
@@ -807,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G47"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -850,10 +904,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -867,22 +921,22 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>111</v>
+        <v>149</v>
       </c>
       <c r="E3" s="1">
         <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -890,19 +944,19 @@
         <v>27</v>
       </c>
       <c r="B4" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="E4" s="1">
         <v>45240</v>
       </c>
       <c r="F4" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -922,7 +976,7 @@
         <v>42397</v>
       </c>
       <c r="F5" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1047,7 +1101,7 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
@@ -1056,7 +1110,7 @@
         <v>34</v>
       </c>
       <c r="D12" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E12" s="1">
         <v>44749</v>
@@ -1067,13 +1121,13 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D13" t="s">
         <v>10</v>
@@ -1082,567 +1136,687 @@
         <v>44952</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="E14" s="1">
         <v>45075</v>
       </c>
       <c r="F14" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="D15" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="E15" s="1">
         <v>45223</v>
       </c>
       <c r="F15" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B16" t="s">
-        <v>38</v>
-      </c>
-      <c r="C16" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>136</v>
       </c>
       <c r="D16" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="3">
-        <v>42824</v>
+        <v>138</v>
+      </c>
+      <c r="E16" s="1">
+        <v>45427</v>
       </c>
       <c r="F16" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>42</v>
+        <v>152</v>
       </c>
       <c r="B17" t="s">
-        <v>38</v>
-      </c>
-      <c r="C17" t="s">
-        <v>43</v>
+        <v>8</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>139</v>
       </c>
       <c r="D17" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3">
-        <v>43837</v>
+        <v>148</v>
+      </c>
+      <c r="E17" s="1">
+        <v>45436</v>
       </c>
       <c r="F17" t="s">
-        <v>45</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>114</v>
       </c>
       <c r="B18" t="s">
-        <v>38</v>
-      </c>
-      <c r="C18" t="s">
-        <v>46</v>
+        <v>8</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>151</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
-      </c>
-      <c r="E18" s="3">
-        <v>43839</v>
+        <v>140</v>
+      </c>
+      <c r="E18" s="1">
+        <v>45440</v>
       </c>
       <c r="F18" t="s">
-        <v>48</v>
+        <v>141</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B19" t="s">
         <v>38</v>
       </c>
       <c r="C19" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E19" s="3">
-        <v>43845</v>
+        <v>42824</v>
       </c>
       <c r="F19" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>53</v>
+      <c r="C20" t="s">
+        <v>43</v>
       </c>
       <c r="D20" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="E20" s="3">
-        <v>43921</v>
+        <v>43837</v>
       </c>
       <c r="F20" t="s">
-        <v>55</v>
+        <v>134</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>42</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>57</v>
+      <c r="C21" t="s">
+        <v>45</v>
       </c>
       <c r="D21" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="E21" s="3">
-        <v>44118</v>
+        <v>43839</v>
       </c>
       <c r="F21" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
       <c r="B22" t="s">
         <v>38</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>61</v>
+      <c r="C22" t="s">
+        <v>48</v>
       </c>
       <c r="D22" t="s">
-        <v>62</v>
+        <v>49</v>
       </c>
       <c r="E22" s="3">
-        <v>44137</v>
+        <v>43845</v>
       </c>
       <c r="F22" t="s">
-        <v>48</v>
+        <v>135</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="D23" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="E23" s="3">
-        <v>44145</v>
+        <v>43921</v>
       </c>
       <c r="F23" t="s">
-        <v>65</v>
+        <v>53</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>101</v>
+        <v>54</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>96</v>
+        <v>55</v>
       </c>
       <c r="D24" t="s">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E24" s="3">
-        <v>44543</v>
+        <v>44118</v>
       </c>
       <c r="F24" t="s">
-        <v>51</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="D25" t="s">
-        <v>107</v>
+        <v>60</v>
       </c>
       <c r="E25" s="3">
-        <v>44589</v>
+        <v>44137</v>
       </c>
       <c r="F25" t="s">
-        <v>108</v>
+        <v>47</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>103</v>
+        <v>61</v>
       </c>
       <c r="D26" t="s">
-        <v>110</v>
+        <v>62</v>
       </c>
       <c r="E26" s="3">
-        <v>44608</v>
+        <v>44145</v>
       </c>
       <c r="F26" t="s">
-        <v>109</v>
+        <v>63</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>106</v>
+        <v>49</v>
       </c>
       <c r="E27" s="3">
-        <v>44614</v>
+        <v>44543</v>
       </c>
       <c r="F27" t="s">
-        <v>65</v>
+        <v>135</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D28" t="s">
         <v>105</v>
       </c>
-      <c r="D28" t="s">
-        <v>97</v>
-      </c>
       <c r="E28" s="3">
-        <v>44844</v>
+        <v>44589</v>
       </c>
       <c r="F28" t="s">
-        <v>65</v>
+        <v>106</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>99</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
-      </c>
-      <c r="C29" t="s">
-        <v>68</v>
+        <v>38</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>101</v>
       </c>
       <c r="D29" t="s">
-        <v>69</v>
+        <v>108</v>
       </c>
       <c r="E29" s="3">
-        <v>41050</v>
+        <v>44608</v>
       </c>
       <c r="F29" t="s">
-        <v>70</v>
+        <v>107</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>11</v>
+        <v>99</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>71</v>
+        <v>38</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>102</v>
       </c>
       <c r="D30" t="s">
-        <v>99</v>
+        <v>104</v>
       </c>
       <c r="E30" s="3">
-        <v>42583</v>
+        <v>44614</v>
       </c>
       <c r="F30" t="s">
-        <v>72</v>
+        <v>63</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>11</v>
+        <v>96</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>73</v>
+        <v>38</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="D31" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E31" s="3">
-        <v>42775</v>
+        <v>44844</v>
       </c>
       <c r="F31" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>75</v>
+        <v>114</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
-      </c>
-      <c r="C32" t="s">
-        <v>76</v>
+        <v>38</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>131</v>
       </c>
       <c r="D32" t="s">
-        <v>100</v>
+        <v>132</v>
       </c>
       <c r="E32" s="3">
-        <v>43313</v>
+        <v>45352</v>
       </c>
       <c r="F32" t="s">
-        <v>77</v>
+        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>75</v>
+        <v>144</v>
       </c>
       <c r="B33" t="s">
-        <v>67</v>
-      </c>
-      <c r="C33" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D33" t="s">
-        <v>79</v>
+        <v>142</v>
       </c>
       <c r="E33" s="3">
-        <v>43586</v>
+        <v>45415</v>
       </c>
       <c r="F33" t="s">
-        <v>80</v>
+        <v>143</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B34" t="s">
+        <v>65</v>
+      </c>
+      <c r="C34" t="s">
+        <v>66</v>
+      </c>
+      <c r="D34" t="s">
         <v>67</v>
       </c>
-      <c r="C34" t="s">
-        <v>81</v>
-      </c>
-      <c r="D34" t="s">
-        <v>82</v>
-      </c>
       <c r="E34" s="3">
-        <v>43649</v>
+        <v>41050</v>
       </c>
       <c r="F34" t="s">
-        <v>83</v>
+        <v>68</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C35" t="s">
-        <v>84</v>
+        <v>69</v>
       </c>
       <c r="D35" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E35" s="3">
-        <v>43759</v>
+        <v>42583</v>
       </c>
       <c r="F35" t="s">
-        <v>36</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>75</v>
+        <v>11</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="D36" t="s">
-        <v>87</v>
+        <v>72</v>
       </c>
       <c r="E36" s="3">
-        <v>44125</v>
+        <v>42775</v>
       </c>
       <c r="F36" t="s">
-        <v>30</v>
+        <v>134</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B37" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="D37" t="s">
-        <v>89</v>
+        <v>98</v>
       </c>
       <c r="E37" s="3">
-        <v>44354</v>
+        <v>43313</v>
       </c>
       <c r="F37" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B38" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="D38" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="E38" s="3">
-        <v>44403</v>
+        <v>43586</v>
       </c>
       <c r="F38" t="s">
-        <v>30</v>
+        <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B39" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>121</v>
+        <v>79</v>
       </c>
       <c r="D39" t="s">
-        <v>125</v>
-      </c>
-      <c r="E39" s="1">
-        <v>44656</v>
+        <v>80</v>
+      </c>
+      <c r="E39" s="3">
+        <v>43649</v>
       </c>
       <c r="F39" t="s">
-        <v>36</v>
+        <v>81</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>123</v>
+        <v>82</v>
       </c>
       <c r="D40" t="s">
-        <v>126</v>
-      </c>
-      <c r="E40" s="1">
-        <v>44740</v>
+        <v>83</v>
+      </c>
+      <c r="E40" s="3">
+        <v>43759</v>
       </c>
       <c r="F40" t="s">
-        <v>127</v>
+        <v>36</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
+        <v>73</v>
+      </c>
+      <c r="B41" t="s">
+        <v>65</v>
+      </c>
+      <c r="C41" t="s">
+        <v>84</v>
+      </c>
+      <c r="D41" t="s">
+        <v>85</v>
+      </c>
+      <c r="E41" s="3">
+        <v>44125</v>
+      </c>
+      <c r="F41" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>27</v>
+      </c>
+      <c r="B42" t="s">
+        <v>65</v>
+      </c>
+      <c r="C42" t="s">
+        <v>86</v>
+      </c>
+      <c r="D42" t="s">
+        <v>87</v>
+      </c>
+      <c r="E42" s="3">
+        <v>44354</v>
+      </c>
+      <c r="F42" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A43" t="s">
+        <v>27</v>
+      </c>
+      <c r="B43" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" t="s">
+        <v>88</v>
+      </c>
+      <c r="D43" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="3">
+        <v>44403</v>
+      </c>
+      <c r="F43" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A44" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" t="s">
+        <v>65</v>
+      </c>
+      <c r="C44" t="s">
         <v>117</v>
       </c>
-      <c r="B41" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" t="s">
-        <v>128</v>
-      </c>
-      <c r="D41" t="s">
+      <c r="D44" t="s">
+        <v>121</v>
+      </c>
+      <c r="E44" s="1">
+        <v>44656</v>
+      </c>
+      <c r="F44" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A45" t="s">
+        <v>120</v>
+      </c>
+      <c r="B45" t="s">
+        <v>65</v>
+      </c>
+      <c r="C45" t="s">
+        <v>119</v>
+      </c>
+      <c r="D45" t="s">
         <v>122</v>
       </c>
-      <c r="E41" s="1">
+      <c r="E45" s="1">
+        <v>44740</v>
+      </c>
+      <c r="F45" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A46" t="s">
+        <v>114</v>
+      </c>
+      <c r="B46" t="s">
+        <v>65</v>
+      </c>
+      <c r="C46" t="s">
+        <v>124</v>
+      </c>
+      <c r="D46" t="s">
+        <v>118</v>
+      </c>
+      <c r="E46" s="1">
         <v>45041</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F46" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
+        <v>146</v>
+      </c>
+      <c r="C47" t="s">
+        <v>145</v>
+      </c>
+      <c r="D47" t="s">
+        <v>148</v>
+      </c>
+      <c r="E47" s="1">
+        <v>45434</v>
+      </c>
+      <c r="F47" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10512"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{640A17A5-1F25-274D-BF5F-24F7DF35B0FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EC152-303C-FC44-B051-71F7E587B6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="237" uniqueCount="153">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
   <si>
     <t>title</t>
   </si>
@@ -463,9 +463,6 @@
     <t>Tissue Mechanics Group Meetings</t>
   </si>
   <si>
-    <t>Laboratoire Génétique et biologie du développement, Institut Curie, Paris, France</t>
-  </si>
-  <si>
     <t>Hydraulic properties of MDCK cell spheroids</t>
   </si>
   <si>
@@ -491,6 +488,27 @@
   </si>
   <si>
     <t>From active matter to cell tissues</t>
+  </si>
+  <si>
+    <t>inv-talk-4</t>
+  </si>
+  <si>
+    <t>Westlake University, Hangzhou, China</t>
+  </si>
+  <si>
+    <t>International Workshop in Mechanobiology</t>
+  </si>
+  <si>
+    <t>seminar-16</t>
+  </si>
+  <si>
+    <t>QBio/FRESK Seminar</t>
+  </si>
+  <si>
+    <t>QBio, PariSanté Campus, Paris</t>
+  </si>
+  <si>
+    <t>Laboratoire Génétique et Biologie du Développement, Institut Curie, Paris, France</t>
   </si>
 </sst>
 </file>
@@ -542,11 +560,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -861,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G47"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -930,7 +951,7 @@
         <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E3" s="1">
         <v>44907</v>
@@ -959,104 +980,104 @@
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>10</v>
+        <v>152</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>154</v>
       </c>
       <c r="E5" s="1">
-        <v>42397</v>
+        <v>45514</v>
       </c>
       <c r="F5" t="s">
-        <v>107</v>
+        <v>153</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E6" s="1">
-        <v>43171</v>
+        <v>42397</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="B7" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D7" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="E7" s="1">
-        <v>43291</v>
+        <v>43171</v>
       </c>
       <c r="F7" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>20</v>
+      <c r="C8" t="s">
+        <v>16</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="E8" s="1">
-        <v>43551</v>
+        <v>43291</v>
       </c>
       <c r="F8" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="E9" s="1">
-        <v>44271</v>
+        <v>43551</v>
       </c>
       <c r="F9" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1067,13 +1088,13 @@
         <v>8</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="D10" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E10" s="1">
-        <v>44278</v>
+        <v>44271</v>
       </c>
       <c r="F10" t="s">
         <v>30</v>
@@ -1081,62 +1102,62 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
-      </c>
-      <c r="E11" s="3">
-        <v>44454</v>
+        <v>32</v>
+      </c>
+      <c r="E11" s="1">
+        <v>44278</v>
       </c>
       <c r="F11" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>93</v>
+        <v>33</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D12" t="s">
-        <v>110</v>
-      </c>
-      <c r="E12" s="1">
-        <v>44749</v>
+        <v>35</v>
+      </c>
+      <c r="E12" s="3">
+        <v>44454</v>
       </c>
       <c r="F12" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>113</v>
+        <v>34</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>110</v>
       </c>
       <c r="E13" s="1">
-        <v>44952</v>
+        <v>44749</v>
       </c>
       <c r="F13" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1147,136 +1168,136 @@
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="D14" t="s">
-        <v>112</v>
+        <v>10</v>
       </c>
       <c r="E14" s="1">
-        <v>45075</v>
+        <v>44952</v>
       </c>
       <c r="F14" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="D15" t="s">
-        <v>128</v>
+        <v>112</v>
       </c>
       <c r="E15" s="1">
-        <v>45223</v>
+        <v>45075</v>
       </c>
       <c r="F15" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>114</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
       <c r="D16" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
       <c r="E16" s="1">
-        <v>45427</v>
+        <v>45223</v>
       </c>
       <c r="F16" t="s">
-        <v>36</v>
+        <v>126</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>152</v>
+        <v>114</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D17" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="E17" s="1">
-        <v>45436</v>
+        <v>45427</v>
       </c>
       <c r="F17" t="s">
-        <v>150</v>
+        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>114</v>
+        <v>151</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="D18" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="E18" s="1">
-        <v>45440</v>
+        <v>45436</v>
       </c>
       <c r="F18" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>37</v>
+        <v>114</v>
       </c>
       <c r="B19" t="s">
-        <v>38</v>
-      </c>
-      <c r="C19" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>150</v>
       </c>
       <c r="D19" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="3">
-        <v>42824</v>
+        <v>140</v>
+      </c>
+      <c r="E19" s="1">
+        <v>45440</v>
       </c>
       <c r="F19" t="s">
-        <v>41</v>
+        <v>141</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
         <v>38</v>
       </c>
       <c r="C20" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D20" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E20" s="3">
-        <v>43837</v>
+        <v>42824</v>
       </c>
       <c r="F20" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -1287,16 +1308,16 @@
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D21" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E21" s="3">
-        <v>43839</v>
+        <v>43837</v>
       </c>
       <c r="F21" t="s">
-        <v>47</v>
+        <v>134</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1307,76 +1328,76 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D22" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E22" s="3">
-        <v>43845</v>
+        <v>43839</v>
       </c>
       <c r="F22" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B23" t="s">
         <v>38</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
+      <c r="C23" t="s">
+        <v>48</v>
       </c>
       <c r="D23" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E23" s="3">
-        <v>43921</v>
+        <v>43845</v>
       </c>
       <c r="F23" t="s">
-        <v>53</v>
+        <v>135</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D24" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E24" s="3">
-        <v>44118</v>
+        <v>43921</v>
       </c>
       <c r="F24" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D25" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E25" s="3">
-        <v>44137</v>
+        <v>44118</v>
       </c>
       <c r="F25" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
@@ -1387,36 +1408,36 @@
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D26" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E26" s="3">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="F26" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B27" t="s">
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D27" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E27" s="3">
-        <v>44543</v>
+        <v>44145</v>
       </c>
       <c r="F27" t="s">
-        <v>135</v>
+        <v>63</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
@@ -1427,16 +1448,16 @@
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E28" s="3">
-        <v>44589</v>
+        <v>44543</v>
       </c>
       <c r="F28" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
@@ -1447,16 +1468,16 @@
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E29" s="3">
-        <v>44608</v>
+        <v>44589</v>
       </c>
       <c r="F29" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
@@ -1467,33 +1488,33 @@
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D30" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="E30" s="3">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="F30" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="E31" s="3">
-        <v>44844</v>
+        <v>44614</v>
       </c>
       <c r="F31" t="s">
         <v>63</v>
@@ -1501,142 +1522,142 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>131</v>
+        <v>103</v>
       </c>
       <c r="D32" t="s">
-        <v>132</v>
+        <v>95</v>
       </c>
       <c r="E32" s="3">
-        <v>45352</v>
+        <v>44844</v>
       </c>
       <c r="F32" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>144</v>
+        <v>114</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D33" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="E33" s="3">
-        <v>45415</v>
+        <v>45352</v>
       </c>
       <c r="F33" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>64</v>
+        <v>143</v>
       </c>
       <c r="B34" t="s">
-        <v>65</v>
-      </c>
-      <c r="C34" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>137</v>
       </c>
       <c r="D34" t="s">
-        <v>67</v>
+        <v>142</v>
       </c>
       <c r="E34" s="3">
-        <v>41050</v>
+        <v>45415</v>
       </c>
       <c r="F34" t="s">
-        <v>68</v>
+        <v>158</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="B35" t="s">
-        <v>65</v>
-      </c>
-      <c r="C35" t="s">
-        <v>69</v>
+        <v>38</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>155</v>
       </c>
       <c r="D35" t="s">
-        <v>97</v>
+        <v>156</v>
       </c>
       <c r="E35" s="3">
-        <v>42583</v>
+        <v>45467</v>
       </c>
       <c r="F35" t="s">
-        <v>70</v>
+        <v>157</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="B36" t="s">
         <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="D36" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="E36" s="3">
-        <v>42775</v>
+        <v>41050</v>
       </c>
       <c r="F36" t="s">
-        <v>134</v>
+        <v>68</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>65</v>
       </c>
       <c r="C37" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="D37" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E37" s="3">
-        <v>43313</v>
+        <v>42583</v>
       </c>
       <c r="F37" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>65</v>
       </c>
       <c r="C38" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="D38" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="E38" s="3">
-        <v>43586</v>
+        <v>42775</v>
       </c>
       <c r="F38" t="s">
-        <v>78</v>
+        <v>134</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
@@ -1647,16 +1668,16 @@
         <v>65</v>
       </c>
       <c r="C39" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="D39" t="s">
-        <v>80</v>
+        <v>98</v>
       </c>
       <c r="E39" s="3">
-        <v>43649</v>
+        <v>43313</v>
       </c>
       <c r="F39" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
@@ -1667,16 +1688,16 @@
         <v>65</v>
       </c>
       <c r="C40" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D40" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E40" s="3">
-        <v>43759</v>
+        <v>43586</v>
       </c>
       <c r="F40" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
@@ -1687,53 +1708,53 @@
         <v>65</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D41" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E41" s="3">
-        <v>44125</v>
+        <v>43649</v>
       </c>
       <c r="F41" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B42" t="s">
         <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D42" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="E42" s="3">
-        <v>44354</v>
+        <v>43759</v>
       </c>
       <c r="F42" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>27</v>
+        <v>73</v>
       </c>
       <c r="B43" t="s">
         <v>65</v>
       </c>
       <c r="C43" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="D43" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="E43" s="3">
-        <v>44403</v>
+        <v>44125</v>
       </c>
       <c r="F43" t="s">
         <v>30</v>
@@ -1741,59 +1762,59 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="B44" t="s">
         <v>65</v>
       </c>
       <c r="C44" t="s">
-        <v>117</v>
+        <v>86</v>
       </c>
       <c r="D44" t="s">
-        <v>121</v>
-      </c>
-      <c r="E44" s="1">
-        <v>44656</v>
+        <v>87</v>
+      </c>
+      <c r="E44" s="3">
+        <v>44354</v>
       </c>
       <c r="F44" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="B45" t="s">
         <v>65</v>
       </c>
       <c r="C45" t="s">
-        <v>119</v>
+        <v>88</v>
       </c>
       <c r="D45" t="s">
-        <v>122</v>
-      </c>
-      <c r="E45" s="1">
-        <v>44740</v>
+        <v>89</v>
+      </c>
+      <c r="E45" s="3">
+        <v>44403</v>
       </c>
       <c r="F45" t="s">
-        <v>123</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="B46" t="s">
         <v>65</v>
       </c>
       <c r="C46" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D46" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="E46" s="1">
-        <v>45041</v>
+        <v>44656</v>
       </c>
       <c r="F46" t="s">
         <v>36</v>
@@ -1801,22 +1822,62 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
+        <v>120</v>
+      </c>
+      <c r="B47" t="s">
+        <v>65</v>
+      </c>
+      <c r="C47" t="s">
+        <v>119</v>
+      </c>
+      <c r="D47" t="s">
+        <v>122</v>
+      </c>
+      <c r="E47" s="1">
+        <v>44740</v>
+      </c>
+      <c r="F47" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A48" t="s">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>65</v>
+      </c>
+      <c r="C48" t="s">
+        <v>124</v>
+      </c>
+      <c r="D48" t="s">
+        <v>118</v>
+      </c>
+      <c r="E48" s="1">
+        <v>45041</v>
+      </c>
+      <c r="F48" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A49" t="s">
+        <v>146</v>
+      </c>
+      <c r="B49" t="s">
+        <v>145</v>
+      </c>
+      <c r="C49" t="s">
+        <v>144</v>
+      </c>
+      <c r="D49" t="s">
         <v>147</v>
       </c>
-      <c r="B47" t="s">
-        <v>146</v>
-      </c>
-      <c r="C47" t="s">
-        <v>145</v>
-      </c>
-      <c r="D47" t="s">
-        <v>148</v>
-      </c>
-      <c r="E47" s="1">
+      <c r="E49" s="1">
         <v>45434</v>
       </c>
-      <c r="F47" t="s">
-        <v>150</v>
+      <c r="F49" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>

--- a/markdown_generator/talks.xlsx
+++ b/markdown_generator/talks.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10714"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/charlie/charlieduclut.github.io/markdown_generator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6EC152-303C-FC44-B051-71F7E587B6D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{165C118F-7048-BE42-896C-624EC461DC60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17480" xr2:uid="{F09A7C8F-8E58-E542-BD9D-52A82FED7577}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="159">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="159">
   <si>
     <t>title</t>
   </si>
@@ -223,9 +223,6 @@
     <t>Laboratoire Jean Perrin (online seminar)</t>
   </si>
   <si>
-    <t xml:space="preserve">Sorbonne Université, Paris, France </t>
-  </si>
-  <si>
     <t>Hysteresis, phase transitions and dangerous transients in power distribution systems</t>
   </si>
   <si>
@@ -346,9 +343,6 @@
     <t>seminar-13</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratoire Jean Perrin </t>
-  </si>
-  <si>
     <t>Laboratoire Physico-Chimie Curie</t>
   </si>
   <si>
@@ -415,9 +409,6 @@
     <t>Rice Global Paris Center, Paris, France</t>
   </si>
   <si>
-    <t>Hydraulic and electric properties of tissues</t>
-  </si>
-  <si>
     <t>Physics meets Biology</t>
   </si>
   <si>
@@ -430,9 +421,6 @@
     <t>seminar-14</t>
   </si>
   <si>
-    <t xml:space="preserve">Laboratoire de Physique </t>
-  </si>
-  <si>
     <t>École Normale Supérieure, Paris, France</t>
   </si>
   <si>
@@ -448,9 +436,6 @@
     <t>seminar-15</t>
   </si>
   <si>
-    <t xml:space="preserve">Chemotaxis - from Basic Physics to Biology </t>
-  </si>
-  <si>
     <t>talk-13</t>
   </si>
   <si>
@@ -484,9 +469,6 @@
     <t>Center Parcs, Le Lac d’Ailette, France</t>
   </si>
   <si>
-    <t>talk-14</t>
-  </si>
-  <si>
     <t>From active matter to cell tissues</t>
   </si>
   <si>
@@ -509,6 +491,24 @@
   </si>
   <si>
     <t>Laboratoire Génétique et Biologie du Développement, Institut Curie, Paris, France</t>
+  </si>
+  <si>
+    <t>Laboratoire Jean Perrin</t>
+  </si>
+  <si>
+    <t>Chemotaxis - from Basic Physics to Biology</t>
+  </si>
+  <si>
+    <t>inv-talk-5</t>
+  </si>
+  <si>
+    <t>Hydraulic and electric properties of cell spheroids</t>
+  </si>
+  <si>
+    <t>inv-talk-6</t>
+  </si>
+  <si>
+    <t>CTBP-Paris Physics meets biology meeting</t>
   </si>
 </sst>
 </file>
@@ -882,10 +882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C56962E-EF5E-A549-B915-DB3E499CC727}">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="F35" sqref="F35"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -925,10 +925,10 @@
         <v>23</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D2" t="s">
         <v>25</v>
@@ -942,382 +942,382 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D3" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E3" s="1">
         <v>44907</v>
       </c>
       <c r="F3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>118</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C4" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="E4" s="1">
-        <v>45240</v>
+        <v>45223</v>
       </c>
       <c r="F4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>27</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C5" t="s">
-        <v>152</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>154</v>
+        <v>146</v>
+      </c>
+      <c r="D5" t="s">
+        <v>127</v>
       </c>
       <c r="E5" s="1">
+        <v>45240</v>
+      </c>
+      <c r="F5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="17" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>27</v>
+      </c>
+      <c r="B6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C6" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="E6" s="1">
         <v>45514</v>
       </c>
-      <c r="F5" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6" t="s">
-        <v>9</v>
-      </c>
-      <c r="D6" t="s">
-        <v>10</v>
-      </c>
-      <c r="E6" s="1">
-        <v>42397</v>
-      </c>
       <c r="F6" t="s">
-        <v>107</v>
+        <v>147</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>156</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="C7" t="s">
-        <v>12</v>
+        <v>157</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>158</v>
       </c>
       <c r="E7" s="1">
-        <v>43171</v>
+        <v>45540</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>124</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D8" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E8" s="1">
-        <v>43291</v>
+        <v>42397</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>20</v>
+      <c r="C9" t="s">
+        <v>12</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="E9" s="1">
-        <v>43551</v>
+        <v>43171</v>
       </c>
       <c r="F9" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B10" t="s">
         <v>8</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>24</v>
+      <c r="C10" t="s">
+        <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E10" s="1">
-        <v>44271</v>
+        <v>43291</v>
       </c>
       <c r="F10" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>27</v>
+        <v>19</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="D11" t="s">
-        <v>32</v>
+        <v>21</v>
       </c>
       <c r="E11" s="1">
-        <v>44278</v>
+        <v>43551</v>
       </c>
       <c r="F11" t="s">
-        <v>30</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B12" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3">
-        <v>44454</v>
+        <v>29</v>
+      </c>
+      <c r="E12" s="1">
+        <v>44271</v>
       </c>
       <c r="F12" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="B13" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="E13" s="1">
-        <v>44749</v>
+        <v>44278</v>
       </c>
       <c r="F13" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>33</v>
       </c>
       <c r="B14" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>113</v>
+        <v>31</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E14" s="1">
-        <v>44952</v>
+        <v>35</v>
+      </c>
+      <c r="E14" s="3">
+        <v>44454</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>36</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>114</v>
+        <v>92</v>
       </c>
       <c r="B15" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>115</v>
+        <v>34</v>
       </c>
       <c r="D15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="E15" s="1">
-        <v>45075</v>
+        <v>44749</v>
       </c>
       <c r="F15" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="B16" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="D16" t="s">
-        <v>128</v>
+        <v>10</v>
       </c>
       <c r="E16" s="1">
-        <v>45223</v>
+        <v>44952</v>
       </c>
       <c r="F16" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B17" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>136</v>
+        <v>113</v>
       </c>
       <c r="D17" t="s">
-        <v>138</v>
+        <v>110</v>
       </c>
       <c r="E17" s="1">
-        <v>45427</v>
+        <v>45075</v>
       </c>
       <c r="F17" t="s">
-        <v>36</v>
+        <v>114</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="B18" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>139</v>
+        <v>123</v>
       </c>
       <c r="D18" t="s">
-        <v>147</v>
+        <v>154</v>
       </c>
       <c r="E18" s="1">
-        <v>45436</v>
+        <v>45427</v>
       </c>
       <c r="F18" t="s">
-        <v>149</v>
+        <v>36</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>114</v>
+        <v>145</v>
       </c>
       <c r="B19" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="D19" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="E19" s="1">
-        <v>45440</v>
+        <v>45436</v>
       </c>
       <c r="F19" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>37</v>
+        <v>112</v>
       </c>
       <c r="B20" t="s">
-        <v>38</v>
-      </c>
-      <c r="C20" t="s">
-        <v>39</v>
+        <v>8</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>134</v>
       </c>
       <c r="D20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E20" s="3">
-        <v>42824</v>
+        <v>135</v>
+      </c>
+      <c r="E20" s="1">
+        <v>45440</v>
       </c>
       <c r="F20" t="s">
-        <v>41</v>
+        <v>136</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="B21" t="s">
         <v>38</v>
       </c>
       <c r="C21" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="D21" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E21" s="3">
-        <v>43837</v>
+        <v>42824</v>
       </c>
       <c r="F21" t="s">
-        <v>134</v>
+        <v>41</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -1328,16 +1328,16 @@
         <v>38</v>
       </c>
       <c r="C22" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D22" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E22" s="3">
-        <v>43839</v>
+        <v>43837</v>
       </c>
       <c r="F22" t="s">
-        <v>47</v>
+        <v>130</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
@@ -1348,76 +1348,76 @@
         <v>38</v>
       </c>
       <c r="C23" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D23" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E23" s="3">
-        <v>43845</v>
+        <v>43839</v>
       </c>
       <c r="F23" t="s">
-        <v>135</v>
+        <v>47</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="B24" t="s">
         <v>38</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>51</v>
+      <c r="C24" t="s">
+        <v>48</v>
       </c>
       <c r="D24" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="E24" s="3">
-        <v>43921</v>
+        <v>43845</v>
       </c>
       <c r="F24" t="s">
-        <v>53</v>
+        <v>131</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B25" t="s">
         <v>38</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D25" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" s="3">
-        <v>44118</v>
+        <v>43921</v>
       </c>
       <c r="F25" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="B26" t="s">
         <v>38</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="D26" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E26" s="3">
-        <v>44137</v>
+        <v>44118</v>
       </c>
       <c r="F26" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
@@ -1428,216 +1428,216 @@
         <v>38</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E27" s="3">
-        <v>44145</v>
+        <v>44137</v>
       </c>
       <c r="F27" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="B28" t="s">
         <v>38</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="D28" t="s">
-        <v>49</v>
+        <v>62</v>
       </c>
       <c r="E28" s="3">
-        <v>44543</v>
+        <v>44145</v>
       </c>
       <c r="F28" t="s">
-        <v>135</v>
+        <v>18</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B29" t="s">
         <v>38</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D29" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="E29" s="3">
-        <v>44589</v>
+        <v>44543</v>
       </c>
       <c r="F29" t="s">
-        <v>106</v>
+        <v>131</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B30" t="s">
         <v>38</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="E30" s="3">
-        <v>44608</v>
+        <v>44589</v>
       </c>
       <c r="F30" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B31" t="s">
         <v>38</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="E31" s="3">
-        <v>44614</v>
+        <v>44608</v>
       </c>
       <c r="F31" t="s">
-        <v>63</v>
+        <v>105</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>38</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D32" t="s">
-        <v>95</v>
+        <v>153</v>
       </c>
       <c r="E32" s="3">
-        <v>44844</v>
+        <v>44614</v>
       </c>
       <c r="F32" t="s">
-        <v>63</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>114</v>
+        <v>95</v>
       </c>
       <c r="B33" t="s">
         <v>38</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>131</v>
+        <v>102</v>
       </c>
       <c r="D33" t="s">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="E33" s="3">
-        <v>45352</v>
+        <v>44844</v>
       </c>
       <c r="F33" t="s">
-        <v>133</v>
+        <v>18</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
-        <v>143</v>
+        <v>112</v>
       </c>
       <c r="B34" t="s">
         <v>38</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="D34" t="s">
-        <v>142</v>
+        <v>44</v>
       </c>
       <c r="E34" s="3">
-        <v>45415</v>
+        <v>45352</v>
       </c>
       <c r="F34" t="s">
-        <v>158</v>
+        <v>129</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
-        <v>27</v>
+        <v>138</v>
       </c>
       <c r="B35" t="s">
         <v>38</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>155</v>
+        <v>133</v>
       </c>
       <c r="D35" t="s">
-        <v>156</v>
+        <v>137</v>
       </c>
       <c r="E35" s="3">
-        <v>45467</v>
+        <v>45415</v>
       </c>
       <c r="F35" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
-        <v>64</v>
+        <v>27</v>
       </c>
       <c r="B36" t="s">
-        <v>65</v>
-      </c>
-      <c r="C36" t="s">
-        <v>66</v>
+        <v>38</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>149</v>
       </c>
       <c r="D36" t="s">
-        <v>67</v>
+        <v>150</v>
       </c>
       <c r="E36" s="3">
-        <v>41050</v>
+        <v>45467</v>
       </c>
       <c r="F36" t="s">
-        <v>68</v>
+        <v>151</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
-        <v>11</v>
+        <v>63</v>
       </c>
       <c r="B37" t="s">
+        <v>64</v>
+      </c>
+      <c r="C37" t="s">
         <v>65</v>
       </c>
-      <c r="C37" t="s">
-        <v>69</v>
-      </c>
       <c r="D37" t="s">
-        <v>97</v>
+        <v>66</v>
       </c>
       <c r="E37" s="3">
-        <v>42583</v>
+        <v>41050</v>
       </c>
       <c r="F37" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
@@ -1645,136 +1645,136 @@
         <v>11</v>
       </c>
       <c r="B38" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C38" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D38" t="s">
-        <v>72</v>
+        <v>96</v>
       </c>
       <c r="E38" s="3">
-        <v>42775</v>
+        <v>42583</v>
       </c>
       <c r="F38" t="s">
-        <v>134</v>
+        <v>69</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
-        <v>73</v>
+        <v>11</v>
       </c>
       <c r="B39" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="E39" s="3">
-        <v>43313</v>
+        <v>42775</v>
       </c>
       <c r="F39" t="s">
-        <v>75</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
+        <v>72</v>
+      </c>
+      <c r="B40" t="s">
+        <v>64</v>
+      </c>
+      <c r="C40" t="s">
         <v>73</v>
       </c>
-      <c r="B40" t="s">
-        <v>65</v>
-      </c>
-      <c r="C40" t="s">
-        <v>76</v>
-      </c>
       <c r="D40" t="s">
-        <v>77</v>
+        <v>97</v>
       </c>
       <c r="E40" s="3">
-        <v>43586</v>
+        <v>43313</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B41" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C41" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D41" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="E41" s="3">
-        <v>43649</v>
+        <v>43586</v>
       </c>
       <c r="F41" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B42" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C42" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D42" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E42" s="3">
-        <v>43759</v>
+        <v>43649</v>
       </c>
       <c r="F42" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B43" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D43" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="E43" s="3">
-        <v>44125</v>
+        <v>43759</v>
       </c>
       <c r="F43" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="B44" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C44" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D44" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E44" s="3">
-        <v>44354</v>
+        <v>44125</v>
       </c>
       <c r="F44" t="s">
         <v>30</v>
@@ -1785,16 +1785,16 @@
         <v>27</v>
       </c>
       <c r="B45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="D45" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="E45" s="3">
-        <v>44403</v>
+        <v>44354</v>
       </c>
       <c r="F45" t="s">
         <v>30</v>
@@ -1802,82 +1802,102 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="B46" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C46" t="s">
-        <v>117</v>
+        <v>87</v>
       </c>
       <c r="D46" t="s">
-        <v>121</v>
-      </c>
-      <c r="E46" s="1">
-        <v>44656</v>
+        <v>88</v>
+      </c>
+      <c r="E46" s="3">
+        <v>44403</v>
       </c>
       <c r="F46" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C47" t="s">
+        <v>115</v>
+      </c>
+      <c r="D47" t="s">
         <v>119</v>
       </c>
-      <c r="D47" t="s">
-        <v>122</v>
-      </c>
       <c r="E47" s="1">
-        <v>44740</v>
+        <v>44656</v>
       </c>
       <c r="F47" t="s">
-        <v>123</v>
+        <v>36</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="B48" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C48" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="D48" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E48" s="1">
-        <v>45041</v>
+        <v>44740</v>
       </c>
       <c r="F48" t="s">
-        <v>36</v>
+        <v>121</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="B49" t="s">
-        <v>145</v>
+        <v>64</v>
       </c>
       <c r="C49" t="s">
+        <v>122</v>
+      </c>
+      <c r="D49" t="s">
+        <v>116</v>
+      </c>
+      <c r="E49" s="1">
+        <v>45041</v>
+      </c>
+      <c r="F49" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A50" t="s">
+        <v>141</v>
+      </c>
+      <c r="B50" t="s">
+        <v>140</v>
+      </c>
+      <c r="C50" t="s">
+        <v>139</v>
+      </c>
+      <c r="D50" t="s">
+        <v>142</v>
+      </c>
+      <c r="E50" s="1">
+        <v>45434</v>
+      </c>
+      <c r="F50" t="s">
         <v>144</v>
-      </c>
-      <c r="D49" t="s">
-        <v>147</v>
-      </c>
-      <c r="E49" s="1">
-        <v>45434</v>
-      </c>
-      <c r="F49" t="s">
-        <v>149</v>
       </c>
     </row>
   </sheetData>
